--- a/experiment_results/20201206_AGGREGATION_AVERAGE_ADDITION_NORMALIZATION_NONE/GPL/4wise/0.95_.xlsx
+++ b/experiment_results/20201206_AGGREGATION_AVERAGE_ADDITION_NORMALIZATION_NONE/GPL/4wise/0.95_.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="op2" sheetId="1" r:id="rId1"/>
+    <sheet name="wong3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -706,19 +706,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D2">
         <v>134</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>795</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>795</v>
       </c>
       <c r="G2">
         <v>921</v>
@@ -744,19 +744,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G3">
         <v>468</v>
@@ -782,19 +782,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="D4">
         <v>243</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="G4">
         <v>666</v>
@@ -820,25 +820,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>116</v>
       </c>
       <c r="E5">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="F5">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="G5">
         <v>351</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I5">
         <v>966</v>
@@ -858,19 +858,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>114</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>441</v>
@@ -896,19 +896,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>502</v>
@@ -934,19 +934,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>622</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>622</v>
       </c>
       <c r="G8">
         <v>721</v>
@@ -972,19 +972,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>480</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="G9">
         <v>921</v>
@@ -1048,19 +1048,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="D11">
         <v>212</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>855</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>855</v>
       </c>
       <c r="G11">
         <v>918</v>
@@ -1086,19 +1086,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="G12">
         <v>484</v>
@@ -1124,19 +1124,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>51</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>592</v>
@@ -1162,19 +1162,19 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>128</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="G14">
         <v>921</v>
@@ -1200,19 +1200,19 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>135</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G15">
         <v>921</v>
@@ -1238,25 +1238,25 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="D16">
         <v>284</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>580</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>580</v>
       </c>
       <c r="G16">
         <v>591</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I16">
         <v>966</v>
@@ -1276,19 +1276,19 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="D17">
         <v>220</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>857</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>857</v>
       </c>
       <c r="G17">
         <v>921</v>
@@ -1352,19 +1352,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>41</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="G19">
         <v>484</v>
@@ -1390,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1399,10 +1399,10 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>484</v>
@@ -1466,19 +1466,19 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>284</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>591</v>
@@ -1513,16 +1513,16 @@
         <v>82</v>
       </c>
       <c r="E23">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F23">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>272</v>
       </c>
       <c r="H23">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I23">
         <v>966</v>
@@ -1542,19 +1542,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>269</v>
@@ -1580,19 +1580,19 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="D25">
         <v>331</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>631</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>631</v>
       </c>
       <c r="G25">
         <v>663</v>
@@ -1618,19 +1618,19 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>220</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>468</v>
@@ -1656,19 +1656,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D27">
         <v>133</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="G27">
         <v>921</v>
@@ -1732,25 +1732,25 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>42</v>
       </c>
       <c r="E29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>366</v>
       </c>
       <c r="H29">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I29">
         <v>966</v>
@@ -1817,16 +1817,16 @@
         <v>14</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="G31">
         <v>294</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>966</v>
@@ -1846,19 +1846,19 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>24</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="G32">
         <v>746</v>
@@ -1884,19 +1884,19 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>130</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G33">
         <v>921</v>
@@ -1922,19 +1922,19 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>144</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>502</v>
@@ -1960,19 +1960,19 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>193</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G35">
         <v>921</v>
@@ -1998,19 +1998,19 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>856</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>856</v>
       </c>
       <c r="G36">
         <v>921</v>
@@ -2112,19 +2112,19 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>41</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="G39">
         <v>424</v>
@@ -2188,7 +2188,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2264,19 +2264,19 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <v>56</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>502</v>
@@ -2340,19 +2340,19 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="D45">
         <v>222</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>326</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>326</v>
       </c>
       <c r="G45">
         <v>468</v>
@@ -2378,19 +2378,19 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>63</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>775</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>775</v>
       </c>
       <c r="G46">
         <v>921</v>
@@ -2416,19 +2416,19 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D47">
         <v>307</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="G47">
         <v>966</v>
@@ -2454,19 +2454,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>98</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>592</v>
@@ -2492,19 +2492,19 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>22</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G49">
         <v>502</v>
@@ -2530,19 +2530,19 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>17</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>591</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>591</v>
       </c>
       <c r="G50">
         <v>666</v>
@@ -2568,25 +2568,25 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>17</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="G51">
         <v>312</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I51">
         <v>966</v>
@@ -2606,19 +2606,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>20</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>516</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>513</v>
       </c>
       <c r="G52">
         <v>675</v>
@@ -2653,16 +2653,16 @@
         <v>41</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G53">
         <v>236</v>
       </c>
       <c r="H53">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I53">
         <v>967</v>
@@ -2720,19 +2720,19 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>36</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>858</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>858</v>
       </c>
       <c r="G55">
         <v>918</v>
@@ -2758,19 +2758,19 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>29</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>502</v>
@@ -2796,19 +2796,19 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D57">
         <v>128</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>564</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>564</v>
       </c>
       <c r="G57">
         <v>919</v>
@@ -2834,19 +2834,19 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D58">
         <v>29</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>423</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>423</v>
       </c>
       <c r="G58">
         <v>592</v>
@@ -2872,19 +2872,19 @@
         <v>69</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>53</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>502</v>
@@ -2910,19 +2910,19 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>17</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="G60">
         <v>485</v>
@@ -2986,19 +2986,19 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D62">
         <v>105</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>845</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>845</v>
       </c>
       <c r="G62">
         <v>921</v>
@@ -3024,19 +3024,19 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D63">
         <v>36</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>852</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>852</v>
       </c>
       <c r="G63">
         <v>918</v>
@@ -3062,19 +3062,19 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D64">
         <v>134</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>617</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>617</v>
       </c>
       <c r="G64">
         <v>921</v>
@@ -3138,19 +3138,19 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D66">
         <v>126</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>661</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="G66">
         <v>919</v>
@@ -3176,19 +3176,19 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>19</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>314</v>
@@ -3214,19 +3214,19 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="D68">
         <v>370</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="G68">
         <v>663</v>
@@ -3252,19 +3252,19 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>307</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>966</v>
@@ -3290,19 +3290,19 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D70">
         <v>31</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>690</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>690</v>
       </c>
       <c r="G70">
         <v>755</v>
@@ -3442,19 +3442,19 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="D74">
         <v>214</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>928</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>928</v>
       </c>
       <c r="G74">
         <v>965</v>
@@ -3480,19 +3480,19 @@
         <v>85</v>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>43</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="G75">
         <v>352</v>
@@ -3518,19 +3518,19 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76">
         <v>45</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G76">
         <v>366</v>
@@ -3632,19 +3632,19 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D79">
         <v>178</v>
       </c>
       <c r="E79">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F79">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="G79">
         <v>366</v>
@@ -3670,19 +3670,19 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D80">
         <v>130</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="G80">
         <v>502</v>
@@ -3708,19 +3708,19 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="D81">
         <v>145</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>372</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>372</v>
       </c>
       <c r="G81">
         <v>468</v>
@@ -3746,19 +3746,19 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D82">
         <v>80</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>568</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>566</v>
       </c>
       <c r="G82">
         <v>837</v>
@@ -3784,7 +3784,7 @@
         <v>93</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -3822,19 +3822,19 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D84">
         <v>78</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>650</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>650</v>
       </c>
       <c r="G84">
         <v>837</v>
@@ -3860,19 +3860,19 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D85">
         <v>44</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="G85">
         <v>502</v>
@@ -3898,19 +3898,19 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="D86">
         <v>220</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>861</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>861</v>
       </c>
       <c r="G86">
         <v>921</v>
@@ -4012,19 +4012,19 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D89">
         <v>39</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>373</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>373</v>
       </c>
       <c r="G89">
         <v>484</v>
@@ -4050,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>102</v>
@@ -4088,25 +4088,25 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C91">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="D91">
         <v>134</v>
       </c>
       <c r="E91">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="F91">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="G91">
         <v>328</v>
       </c>
       <c r="H91">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I91">
         <v>966</v>
@@ -4126,19 +4126,19 @@
         <v>102</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D92">
         <v>36</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="G92">
         <v>921</v>
@@ -4164,19 +4164,19 @@
         <v>103</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="D93">
         <v>220</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="G93">
         <v>468</v>
